--- a/data/data_description.xlsx
+++ b/data/data_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentkdg-my.sharepoint.com/personal/levi_slap_kdg_be/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pashioya/IdeaProjects/kdg/data/6/data-exploration-modeling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9838A9A4-C942-4958-B399-3D700FA7D633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1727771-AC7C-D24A-8D20-AEDA885E5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D0B25833-1DB3-4563-BE68-9A61AFC2A4C8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{D0B25833-1DB3-4563-BE68-9A61AFC2A4C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -77,9 +77,6 @@
     <t>InputC4</t>
   </si>
   <si>
-    <t>Outside air</t>
-  </si>
-  <si>
     <t>Nm3/h</t>
   </si>
   <si>
@@ -267,6 +264,72 @@
   </si>
   <si>
     <t>mg/L</t>
+  </si>
+  <si>
+    <t>Custom Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>O2 perc</t>
+  </si>
+  <si>
+    <t>Tank 1</t>
+  </si>
+  <si>
+    <t>pH regulator in flow</t>
+  </si>
+  <si>
+    <t>Sludge recycle in flow</t>
+  </si>
+  <si>
+    <t>Outside air tank 1</t>
+  </si>
+  <si>
+    <t>Air in flow</t>
+  </si>
+  <si>
+    <t>Content height</t>
+  </si>
+  <si>
+    <t>pH measurement FR</t>
+  </si>
+  <si>
+    <t>O2 measurement FR</t>
+  </si>
+  <si>
+    <t>O2 dissolved</t>
+  </si>
+  <si>
+    <t>Sludge concentration</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>NO3 Dissolved</t>
+  </si>
+  <si>
+    <t>Tank 2</t>
+  </si>
+  <si>
+    <t>Outside air tank2</t>
+  </si>
+  <si>
+    <t>Flowrate to pH measurement in tank 2</t>
+  </si>
+  <si>
+    <t>Input A</t>
+  </si>
+  <si>
+    <t>Amount of sludge</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>Input B</t>
   </si>
 </sst>
 </file>
@@ -327,7 +390,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -343,7 +406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -639,19 +702,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA5A628-2B85-4D44-9359-CCFF192C885D}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,8 +725,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -672,8 +742,14 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -683,8 +759,14 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -694,372 +776,607 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
